--- a/Time Management and Productivity Scale (Responses)_1.xlsx
+++ b/Time Management and Productivity Scale (Responses)_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imanuel Uneputty\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imanuel Uneputty\Documents\Bangkit\Capstone\Bangkit_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6787DFD7-E921-415E-BDF0-863ADC411B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E7772-F495-4310-9542-EFB0E8E87AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
